--- a/Excel/S3/Populacao.xlsx
+++ b/Excel/S3/Populacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\R\S3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\R\ProjWAV\Excel\S3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C315AC-453F-4DB1-9EC8-DFDDBF4FF839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2683BB0-1B17-4E6D-8DFD-72E9026981D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{43768A80-4103-4713-94E1-43FFAA5F62CC}"/>
+    <workbookView xWindow="6768" yWindow="36" windowWidth="16272" windowHeight="8964" xr2:uid="{43768A80-4103-4713-94E1-43FFAA5F62CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64802F1C-1471-4E70-B3ED-E17488EF1665}">
-  <dimension ref="A1:G964"/>
+  <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0">
-      <selection activeCell="C856" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A952" workbookViewId="0">
+      <selection activeCell="A964" sqref="A961:A964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23314,30 +23314,6 @@
         <v>2.8959999999999999</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A961">
-        <f t="shared" si="14"/>
-        <v>960</v>
-      </c>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A962">
-        <f t="shared" si="14"/>
-        <v>961</v>
-      </c>
-    </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A963">
-        <f t="shared" si="14"/>
-        <v>962</v>
-      </c>
-    </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A964">
-        <f t="shared" ref="A964" si="15">A963+1</f>
-        <v>963</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
